--- a/flash fill-exercise.xlsx
+++ b/flash fill-exercise.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hatted/Documents/Y/important/computer/Office/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymondtsang/GitHub/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="54340" yWindow="460" windowWidth="17320" windowHeight="16820" activeTab="3"/>
+    <workbookView xWindow="16280" yWindow="460" windowWidth="17320" windowHeight="16820"/>
   </bookViews>
   <sheets>
     <sheet name="Combine" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="75">
   <si>
     <t>First Name</t>
   </si>
@@ -212,12 +215,6 @@
   </si>
   <si>
     <t>施安宜</t>
-  </si>
-  <si>
-    <t>Data -&gt; Data Tools -&gt; Flash Fill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do the first one, then </t>
   </si>
   <si>
     <t>Frankie</t>
@@ -252,6 +249,24 @@
   <si>
     <t>王安邦</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chan</t>
+  </si>
+  <si>
+    <t>Leung</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Wong</t>
+  </si>
+  <si>
+    <t>Ho</t>
+  </si>
+  <si>
+    <t>Fan</t>
   </si>
 </sst>
 </file>
@@ -600,9 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -627,100 +640,160 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +808,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -760,100 +833,160 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -867,7 +1000,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -915,7 +1048,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -996,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1012,19 +1145,19 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1049,71 +1182,76 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1125,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="B2:C16"/>
+      <selection activeCell="A18" sqref="A18:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1148,7 +1286,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1219,16 +1357,6 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1254,10 +1382,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
